--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -376,6 +376,93 @@
   </si>
   <si>
     <t xml:space="preserve"> Âàô! Òðàòéáï óåáå, [CS:N]Œàêíåëï[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What was that awful stench...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I won\'t let that bother me!\nI have my job to do!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0602.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что это был за ужасный\nзапах?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но я не буду обращать на него\nвнимание! Мне есть чем заняться!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï üóï áúì èà ôçàòîúê\nèàðàö?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï ÿ îå áôäô ïáñàþàóû îà îåãï\nâîéíàîéå! Íîå åòóû œåí èàîÿóûòÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ewww... It still reeks…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But I won\'t be overcome by it!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0610.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Фууу... Здесь всё ещё воняет...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но мне это не помеха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Õôôô... Èäåòû âòæ åþæ âïîÿåó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï íîå üóï îå ðïíåöà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The expedition is coming up![K]\nLet\'s do our best to be chosen!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0701.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро начнётся экспедиция![K]\nСделаем всё возможное, чтобы нас туда\nвзяли!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï îàœîæóòÿ üëòðåäéøéÿ![K]\nÒäåìàåí âòæ âïèíïçîïå, œóïáú îàò óôäà\nâèÿìé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The expedition is coming up\nsoon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope everyone does their best!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0705.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро начнётся экспедиция!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я надеюсь, что каждый делает\nвсё, что в его силах!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï îàœîæóòÿ üëòðåäéøéÿ!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ îàäåýòû, œóï ëàçäúê äåìàåó\nâòæ, œóï â åãï òéìàö!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s wonderful! It\'s so nice that\nwe can all go on the expedition together!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um0801.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это так чудесно! Как хорошо,\nчто мы все можем пойти в экспедицию!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï óàë œôäåòîï! Ëàë öïñïšï,\nœóï íú âòå íïçåí ðïêóé â üëòðåäéøéý!</t>
   </si>
 </sst>
 </file>
@@ -406,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -447,11 +534,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -472,6 +570,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1342,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>296</v>
       </c>
@@ -1252,7 +1356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
       <c r="B34" s="4">
         <v>299</v>
       </c>
@@ -1266,18 +1370,149 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+    <row r="35" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="7" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="4">
+        <v>704</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6">
+        <v>707</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="4">
+        <v>674</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
+        <v>679</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="8">
+        <v>651</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="4">
+        <v>623</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6">
+        <v>626</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B43" s="4">
+        <v>598</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -463,6 +463,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï óàë œôäåòîï! Ëàë öïñïšï,\nœóï íú âòå íïçåí ðïêóé â üëòðåäéøéý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wasn\'t the expedition fun?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Well, we\'re back to the regular\nguild routine! It\'s time to work again!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Разве в нашей экспедиции не\nбыло весело?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-ж, теперь мы снова\nзанимаемся нашими гильдейскими делами!\nПора снова поработать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàèâå â îàšåê üëòðåäéøéé îå\náúìï âåòåìï?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-ç, óåðåñû íú òîïâà\nèàîéíàåíòÿ îàšéíé ãéìûäåêòëéíé äåìàíé!\nÐïñà òîïâà ðïñàáïóàóû!</t>
   </si>
 </sst>
 </file>
@@ -858,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,20 +1520,51 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="8">
         <v>598</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="9" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="4">
+        <v>570</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>573</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -484,6 +484,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Œóï-ç, óåðåñû íú òîïâà\nèàîéíàåíòÿ îàšéíé ãéìûäåêòëéíé äåìàíé!\nÐïñà òîïâà ðïñàáïóàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck catching that criminal\n[CS:N]Grovyle[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам в поимке этого\nнегодяя [CS:N]Гровайла[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí â ðïéíëå üóïãï\nîåãïäÿÿ [CS:N]Ãñïâàêìà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you do well on your\n[CS:P]Crystal Cave[CR] exploration!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1407.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, что у вас получится\nуспешно исследовать [CS:P]Кристальную Пещеру[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, œóï ô âàò ðïìôœéóòÿ\nôòðåšîï éòòìåäïâàóû [CS:P]Ëñéòóàìûîôý Ðåþåñô[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s back to our regular work\nfor now.</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1603.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пока что мы возвращаемся к нашей\nобычной работе.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëà œóï íú âïèâñàþàåíòÿ ë îàšåê\nïáúœîïê ñàáïóå.</t>
   </si>
 </sst>
 </file>
@@ -879,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,17 +1590,69 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6">
         <v>573</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="7" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="8">
+        <v>490</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="8">
+        <v>450</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="4">
+        <v>385</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -520,6 +520,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïëà œóï íú âïèâñàþàåíòÿ ë îàšåê\nïáúœîïê ñàáïóå.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m happy to see your team back,\n[hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope we can work together!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я рада, что твоя команда снова\nв строю, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, мы ещё будем работать\nвместе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ñàäà, œóï óâïÿ ëïíàîäà òîïâà\nâ òóñïý, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, íú åþæ áôäåí ñàáïóàóû\nâíåòóå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m going out to [CS:P]Brine Cave[CR]\ntomorrow too!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let\'s do good!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Завтра я тоже отправлюсь в\n[CS:P]Пещеру у Моря[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы справимся!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èàâóñà ÿ óïçå ïóðñàâìýòû â\n[CS:P]Ðåþåñô ô Íïñÿ[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú òðñàâéíòÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s not possible to add team\nmembers when exploring the [CS:P]Hidden Land[CR].[K]\nThat\'s very disappointing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t give up, though! You have\nto succeed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Во время исследования [CS:P]Сокрытых\nЗемель[CR] нельзя брать с собой других членов\nгруппы.[K] Это расстраивает...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но не сдавайтесь! У вас всё\nполучится!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âï âñåíÿ éòòìåäïâàîéÿ [CS:P]Òïëñúóúö\nÈåíåìû[CR] îåìûèÿ áñàóû ò òïáïê äñôãéö œìåîïâ\nãñôððú.[K] Üóï ñàòòóñàéâàåó...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï îå òäàâàêóåòû! Ô âàò âòæ\nðïìôœéóòÿ!</t>
   </si>
 </sst>
 </file>
@@ -915,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1639,20 +1702,115 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="8">
         <v>385</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="9" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="4">
+        <v>357</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6">
+        <v>360</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="4">
+        <v>329</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6">
+        <v>332</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="4">
+        <v>301</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="4">
+        <v>304</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -583,6 +583,21 @@
   </si>
   <si>
     <t xml:space="preserve"> Îï îå òäàâàêóåòû! Ô âàò âòæ\nðïìôœéóòÿ!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um2502.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck on your graduation\nexam!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0101.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам на выпускном\nэкзамене!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí îà âúðôòëîïí\nüëèàíåîå!</t>
   </si>
 </sst>
 </file>
@@ -978,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1799,18 +1814,38 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="4">
+    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="6">
         <v>304</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="E54" s="7" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="4">
+        <v>276</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -598,6 +598,63 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé âàí îà âúðôòëîïí\nüëèàíåîå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I got to see the one and only\nTeam [CS:X]Charm[CR] with my own eyes...[K] That\'s more\nthan enough for me!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я собственными глазами видела\nту самую Команду [CS:X]Шарм[CR]...[K] Мне этого более\nчем достаточно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òïáòóâåîîúíé ãìàèàíé âéäåìà\nóô òàíôý Ëïíàîäô [CS:X]Šàñí[CR]...[K] Íîå üóïãï áïìåå\nœåí äïòóàóïœîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you manage to bring\n[CS:N]Drowzee[CR] back!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2006.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы сумеете привести\nсюда [CS:N]Дроузи[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú òôíååóå ðñéâåòóé\nòýäà [CS:N]Äñïôèé[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh?[K] You can go into [CS:N]Azurill[CR]\'s\ndream?[K] That\'s wonderful news!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hope you\'ll get to the root of\nthe problem!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2009.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Вы сможете попасть в сон\n[CS:N]Азурилла[CR]?[K] Это же прекрасно!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надеюсь, вы доберётесь до истины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Âú òíïçåóå ðïðàòóû â òïî\n[CS:N]Àèôñéììà[CR]?[K] Üóï çå ðñåëñàòîï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäåýòû, âú äïáåñæóåòû äï éòóéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good luck!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/us2201.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Удачи вам!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôäàœé âàí!</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1832,20 +1889,103 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="8">
         <v>276</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="9" t="s">
         <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B56" s="8">
+        <v>206</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="8">
+        <v>151</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="4">
+        <v>123</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6">
+        <v>126</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="4">
+        <v>68</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Чаймеко.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -655,6 +655,18 @@
   </si>
   <si>
     <t xml:space="preserve"> Ôäàœé âàí!</t>
+  </si>
+  <si>
+    <t>SCRIPT/G01P03A/um1501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You mustn\'t give up!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не сдавайтесь!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå òäàâàêóåòû!</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,217 +1786,234 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="4">
+        <v>425</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B49" s="8">
         <v>385</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C49" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="50" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B50" s="4">
         <v>357</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6">
+    <row r="51" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6">
         <v>360</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B52" s="4">
         <v>329</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D52" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6">
         <v>332</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C53" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E53" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="54" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B54" s="4">
         <v>301</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="55" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B55" s="6">
         <v>304</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E55" s="7" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B55" s="8">
-        <v>276</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B56" s="8">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B57" s="8">
+        <v>206</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B58" s="8">
         <v>151</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C58" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="E58" s="9" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B59" s="4">
         <v>123</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C59" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D59" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E59" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6">
+    <row r="60" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6">
         <v>126</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E60" s="7" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B61" s="4">
         <v>68</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D61" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E61" s="5" t="s">
         <v>211</v>
       </c>
     </row>
